--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\StandardExpressApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892AC47-0CF3-43E2-AC77-70610CCA0FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D88FC-7E60-4886-82FD-CF0C43D17F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E8CBD94B-6FC2-421A-9554-A1B17E1661A1}"/>
+    <workbookView xWindow="39840" yWindow="3165" windowWidth="18030" windowHeight="9960" xr2:uid="{E8CBD94B-6FC2-421A-9554-A1B17E1661A1}"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>用例编号</t>
   </si>
@@ -62,18 +62,6 @@
     <t>第N次执行情况</t>
   </si>
   <si>
-    <t>* 预期结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>13128662262</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,7 +70,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a1234561123</t>
+    <t>username</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13216628864</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a123456789a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号或密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7045153-05F2-4628-BA96-A76E5038252D}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -598,7 +658,7 @@
     <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="4" max="4" width="24.08203125" customWidth="1"/>
     <col min="5" max="5" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -641,16 +701,18 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -660,17 +722,19 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -681,10 +745,16 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -695,10 +765,16 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -708,11 +784,19 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:12" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -723,10 +807,18 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -752,7 +844,6 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -766,7 +857,6 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -848,6 +938,20 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
